--- a/medicine/Enfance/Alexis_Dormal/Alexis_Dormal.xlsx
+++ b/medicine/Enfance/Alexis_Dormal/Alexis_Dormal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexis Dormal, né le 30 janvier 1977 à Bruxelles (région de Bruxelles-Capitale), est un dessinateur et coloriste de bande dessinée belge francophone.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexis Dormal naît le 30 janvier 1977 à Bruxelles. Alexis Dormal étudie à l'école Émile-Cohl située à Lyon[1]. Il crée le personnage de Pico Bogue sur un scénario de sa mère, Dominique Roques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexis Dormal naît le 30 janvier 1977 à Bruxelles. Alexis Dormal étudie à l'école Émile-Cohl située à Lyon. Il crée le personnage de Pico Bogue sur un scénario de sa mère, Dominique Roques.
 À la suite du succès de Pico Bogue, ils créent une série parallèle autour de la petite sœur de leur personnage, Ana Ana.
-Paru en 2020, le tome 12 de Pico Bogue, intitulé Inséparables, figure dans la sélection pour le fauve d'or au Festival d'Angoulême 2021[2].
+Paru en 2020, le tome 12 de Pico Bogue, intitulé Inséparables, figure dans la sélection pour le fauve d'or au Festival d'Angoulême 2021.
 </t>
         </is>
       </c>
@@ -546,9 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Séries
-Pico Bogue, scénario de Dominique Roques, Dargaud
-1 La Vie et moi[3], Dargaud, Paris, mai 2008Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-06074-4)
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pico Bogue, scénario de Dominique Roques, Dargaud
+1 La Vie et moi, Dargaud, Paris, mai 2008Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-06074-4)
 2 Situations critiques, Dargaud, Paris, mars 2009Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-06206-9)
 3 Question d'équilibre, Dargaud, Paris, 13 novembre 2009Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205063578)
 4 Pico love, Dargaud, Paris, 12 novembre 2010Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205065213)
@@ -557,18 +576,18 @@
 7 Cadence infernale, Dargaud, Paris, 31 octobre 2014Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-07289-1)
 8 L'Original, Dargaud, Paris, 6 novembre 2015Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-07415-4)
 9 Carnet de bord, Dargaud, Paris, 10 novembre 2016Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205075649)
-10 L'Amour de l'art[4], Dargaud, Paris, 3 novembre 2017Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077421)
+10 L'Amour de l'art, Dargaud, Paris, 3 novembre 2017Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077421)
 11 L'Heure est grave, Dargaud, Paris, 19 avril 2019Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205078015)
 12 Inséparables, Dargaud, Paris, 25 septembre 2020Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205084924)
 13 Sur le chemin, Dargaud, Paris, 17 septembre 2021Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205089097)
 14 Un calme fou, Dargaud, Paris, 23 septembre 2022Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205203172)
-15 Les Heures et les jours[5], Dargaud, Paris, 13 octobre 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20802-3).
+15 Les Heures et les jours, Dargaud, Paris, 13 octobre 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20802-3).
 L'Étymologie avec Pico Bogue
 Volume I, septembre 2018
 Volume II, septembre 2019
 Ana Ana, scénario de Dominique Roques, Dargaud
-Douce nuit[6], 2012
-Déluge de chocolat[6], 2012
+Douce nuit, 2012
+Déluge de chocolat, 2012
 Une virée à la mer, 2014
 Les Champions du désordre, 2014
 Super-héros en herbe, 2015
@@ -578,7 +597,7 @@
 La Savane dans mon jardin, 2017
 10 Ana Ana est malade, Dargaud, coll. « Jeunesse », Paris, 18 août 2017Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205076622),Format à l'italienne.
 11 Ana Ana très pressée, Dargaud, coll. « Jeunesse », Paris, 9 mars 2018Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077049)
-12 Je ne veux pas être un princesse[7] !, Dargaud, coll. « Jeunesse », Paris, 7 septembre 2018Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077889)
+12 Je ne veux pas être un princesse !, Dargaud, coll. « Jeunesse », Paris, 7 septembre 2018Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205077889)
 13 Papillons, lilas et fraises des bois, Dargaud, coll. « Jeunesse », Paris, 19 avril 2019Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205079227)
 14 Un bel hiver, Dargaud, coll. « Jeunesse », Paris, 25 octobre 2019Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205079234)
 15 Les Doudous libraires, Dargaud, coll. « Jeunesse », Paris, 6 mars 2020Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205084900)
@@ -589,12 +608,7 @@
 20 Joyeux anniversaire !, Dargaud, coll. « Jeunesse », Paris, 23 septembre 2022Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205203141)
 21 Comment bien dormir avec six doudous ?, Dargaud, coll. « Jeunesse », Paris, 10 mars 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205206432)
 22 Joyeux Noël, Dargaud, coll. « Jeunesse », Paris, 13 octobre 2023Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 9782205211214)
-23 Le Sable, les vagues et touffe de poils, Dargaud, coll. « Jeunesse », Paris, 8 mars 2024Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20644-9)
-One-shots et participations
-BD Jazz, tome Nat King Cole, Éditions Nocturne, 2003
-BD Jazz, hors série Best of BD Jazz , collectif, Éditions Nocturne, 2004
-Les Gens normaux, collectif, Casterman, 2013
-Tralalire no 180, novembre 2015, histoire courte Si j'avais un lion, scénario de Marine Gérald.</t>
+23 Le Sable, les vagues et touffe de poils, Dargaud, coll. « Jeunesse », Paris, 8 mars 2024Scénario : Dominique Roques - Dessin et couleurs : Alexis Dormal -  (ISBN 978-2-205-20644-9)</t>
         </is>
       </c>
     </row>
@@ -619,12 +633,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>One-shots et participations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BD Jazz, tome Nat King Cole, Éditions Nocturne, 2003
+BD Jazz, hors série Best of BD Jazz , collectif, Éditions Nocturne, 2004
+Les Gens normaux, collectif, Casterman, 2013
+Tralalire no 180, novembre 2015, histoire courte Si j'avais un lion, scénario de Marine Gérald.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexis_Dormal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Dormal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2009 :  Prix Saint-Michel de l'avenir (avec Dominique Roques), pour Pico Bogue, t. 2 : Situations critiques[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2009 :  Prix Saint-Michel de l'avenir (avec Dominique Roques), pour Pico Bogue, t. 2 : Situations critiques.</t>
         </is>
       </c>
     </row>
